--- a/Antibiotic_gene.xlsx
+++ b/Antibiotic_gene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzherrmann/Projects/Antibiotic_resistance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8ABA572C-D871-3449-816E-10B6A0341A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{080351D0-58CF-7A4F-B5C8-1248B4A15A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="24840" windowHeight="15540" activeTab="1" xr2:uid="{FF2F3A89-BDAA-6B4B-8FF7-A9AF6B05F648}"/>
+    <workbookView xWindow="29040" yWindow="-2020" windowWidth="27640" windowHeight="18360" activeTab="1" xr2:uid="{FF2F3A89-BDAA-6B4B-8FF7-A9AF6B05F648}"/>
   </bookViews>
   <sheets>
     <sheet name="CARD" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,28 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8920,13 +8941,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E26BB9-F062-4143-A255-55FCDF4AD6D9}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -10226,6 +10248,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B117:C130">
     <sortCondition ref="B116"/>
   </sortState>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>